--- a/Client/Assets/Excel/BattleSkill.xlsx
+++ b/Client/Assets/Excel/BattleSkill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Perforce\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_Project\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11840352-DCEE-4834-A633-8588B1A218C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03968A99-8F2D-47E2-BA7F-5FE6113A0D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="140">
   <si>
     <t>int</t>
   </si>
@@ -507,6 +507,47 @@
   </si>
   <si>
     <t>기본 스킬 옵션과 동일한 효과 적용 시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEMCharacterTest_Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEMCharacterTest_Skill_Option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEMChargeRate</t>
+  </si>
+  <si>
+    <t>DEMChargeRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 사용 시 DEM 수치 충전량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Globla 테이블 내 DEMChargeRate 참조
+- 충전을 통해 DEMChargeRate 달성 시 DEM 스킬 사용 가능 상태로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEM 캐릭터 스킬 Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlotNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용 가능 스킬 슬롯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero 테이블 내 스킬 슬롯 번호 참조
+- SkillSlotNum1~6 열 데이터가 해당 데이터와 동일한 경우에만 스킬 배치 가능 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,7 +620,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,6 +648,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,7 +782,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -822,39 +869,22 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -922,6 +952,46 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1259,10 +1329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F063EE88-CECF-4FCC-A09E-E6D311F25387}">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1271,23 +1341,24 @@
     <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.875" customWidth="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.875" customWidth="1"/>
-    <col min="9" max="9" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.5" customWidth="1"/>
-    <col min="15" max="15" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.5" customWidth="1"/>
-    <col min="18" max="18" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.125" customWidth="1"/>
+    <col min="9" max="9" width="20.875" customWidth="1"/>
+    <col min="10" max="10" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.5" customWidth="1"/>
+    <col min="16" max="16" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.5" customWidth="1"/>
+    <col min="19" max="19" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="27.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1305,9 +1376,10 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>104</v>
       </c>
@@ -1327,50 +1399,56 @@
       <c r="G3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W3" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3010001</v>
       </c>
@@ -1393,50 +1471,56 @@
       <c r="G4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="30">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
         <v>6</v>
       </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
       <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
         <v>5011002</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M4" s="5">
         <v>1</v>
       </c>
-      <c r="M4" s="5">
+      <c r="N4" s="5">
         <v>6</v>
       </c>
-      <c r="N4" s="5">
+      <c r="O4" s="5">
         <v>5011003</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="P4" s="5">
+      <c r="Q4" s="5">
         <v>7</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="R4" s="5">
         <v>10</v>
       </c>
-      <c r="R4" s="5">
+      <c r="S4" s="5">
         <v>5011004</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="T4" s="5">
+      <c r="U4" s="5">
         <v>11</v>
       </c>
-      <c r="U4" s="5">
+      <c r="V4" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W4" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3110002</v>
       </c>
@@ -1459,50 +1543,56 @@
       <c r="G5" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="5">
-        <v>0</v>
+      <c r="H5" s="30">
+        <v>1</v>
       </c>
       <c r="I5" s="5">
         <v>0</v>
       </c>
       <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
         <v>5021002</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="5">
         <v>1</v>
       </c>
-      <c r="M5" s="5">
+      <c r="N5" s="5">
         <v>5</v>
       </c>
-      <c r="N5" s="5">
+      <c r="O5" s="5">
         <v>5021003</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="P5" s="5">
+      <c r="Q5" s="5">
         <v>6</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="R5" s="5">
         <v>10</v>
       </c>
-      <c r="R5" s="5">
+      <c r="S5" s="5">
         <v>5021004</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="T5" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="T5" s="5">
+      <c r="U5" s="5">
         <v>11</v>
       </c>
-      <c r="U5" s="5">
+      <c r="V5" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W5" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>3110002</v>
       </c>
@@ -1525,50 +1615,56 @@
       <c r="G6" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="H6" s="5">
-        <v>0</v>
+      <c r="H6" s="30">
+        <v>2</v>
       </c>
       <c r="I6" s="5">
         <v>0</v>
       </c>
       <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
         <v>5021006</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M6" s="5">
         <v>1</v>
       </c>
-      <c r="M6" s="5">
+      <c r="N6" s="5">
         <v>8</v>
       </c>
-      <c r="N6" s="5">
+      <c r="O6" s="5">
         <v>5021007</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="P6" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="P6" s="5">
+      <c r="Q6" s="5">
         <v>8</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="R6" s="5">
         <v>11</v>
       </c>
-      <c r="R6" s="5">
+      <c r="S6" s="5">
         <v>5021008</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="T6" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="T6" s="5">
-        <v>12</v>
       </c>
       <c r="U6" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V6" s="5">
+        <v>12</v>
+      </c>
+      <c r="W6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>3110002</v>
       </c>
@@ -1591,50 +1687,56 @@
       <c r="G7" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H7" s="5">
-        <v>0</v>
+      <c r="H7" s="30">
+        <v>4</v>
       </c>
       <c r="I7" s="5">
         <v>0</v>
       </c>
       <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
         <v>5021010</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M7" s="5">
         <v>1</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N7" s="5">
         <v>5</v>
       </c>
-      <c r="N7" s="5">
+      <c r="O7" s="5">
         <v>5021011</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="P7" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="P7" s="5">
+      <c r="Q7" s="5">
         <v>6</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="R7" s="5">
         <v>10</v>
       </c>
-      <c r="R7" s="5">
+      <c r="S7" s="5">
         <v>5021012</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="T7" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="T7" s="5">
+      <c r="U7" s="5">
         <v>11</v>
       </c>
-      <c r="U7" s="5">
+      <c r="V7" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W7" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>3110002</v>
       </c>
@@ -1657,95 +1759,181 @@
       <c r="G8" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="5">
-        <v>0</v>
+      <c r="H8" s="30">
+        <v>6</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
       </c>
       <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
         <v>5021014</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M8" s="5">
         <v>1</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N8" s="5">
         <v>8</v>
       </c>
-      <c r="N8" s="5">
+      <c r="O8" s="5">
         <v>5021015</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="P8" s="5">
+      <c r="Q8" s="5">
         <v>8</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="R8" s="5">
         <v>11</v>
       </c>
-      <c r="R8" s="5">
+      <c r="S8" s="5">
         <v>5021016</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="T8" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="T8" s="5">
-        <v>12</v>
       </c>
       <c r="U8" s="5">
         <v>12</v>
       </c>
+      <c r="V8" s="5">
+        <v>12</v>
+      </c>
+      <c r="W8" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>3210001</v>
+      </c>
+      <c r="B9" s="5">
+        <f>A9+1000</f>
+        <v>3211001</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8010001</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5121001</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="30">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>5</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0</v>
+      </c>
+      <c r="T9" s="5">
+        <v>0</v>
+      </c>
+      <c r="U9" s="5">
+        <v>0</v>
+      </c>
+      <c r="V9" s="5">
+        <v>0</v>
+      </c>
+      <c r="W9" s="5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A5:D8">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+  <conditionalFormatting sqref="A5:D9">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:U4">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
+  <conditionalFormatting sqref="A4:G4 I4:W4">
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E8">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  <conditionalFormatting sqref="E5:E9">
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:J5 L5:N6 P5:R6 T5:U6 H6:J6 F6:F8 H7:U8">
-    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
+  <conditionalFormatting sqref="G6">
+    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H9 F5:G5 I5:K6 M5:O6 Q5:S6 U5:V6 F6:F9 I7:V9">
+    <cfRule type="cellIs" dxfId="7" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+  <conditionalFormatting sqref="L6">
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="4" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+  <conditionalFormatting sqref="P6">
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  <conditionalFormatting sqref="T5">
+    <cfRule type="duplicateValues" dxfId="2" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
+  <conditionalFormatting sqref="T6">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S5">
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S6">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  <conditionalFormatting sqref="W5:W9">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1754,10 +1942,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC20F848-A3FA-48AA-90E8-936303A059B5}">
-  <dimension ref="B3:P23"/>
+  <dimension ref="B3:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1931,18 +2119,18 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>35</v>
+        <v>138</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="17" t="s">
@@ -1960,30 +2148,30 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="C12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="G12" t="s">
         <v>94</v>
@@ -1991,16 +2179,16 @@
     </row>
     <row r="13" spans="2:16" ht="24" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G13" s="27" t="s">
         <v>129</v>
@@ -2015,18 +2203,18 @@
       <c r="O13" s="12"/>
       <c r="P13" s="13"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" ht="24" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="G14" s="23" t="s">
         <v>95</v>
@@ -2035,16 +2223,16 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" t="s">
@@ -2052,18 +2240,18 @@
       </c>
       <c r="P15" s="22"/>
     </row>
-    <row r="16" spans="2:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>39</v>
+        <v>84</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>96</v>
@@ -2072,16 +2260,16 @@
     </row>
     <row r="17" spans="2:16" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G17" s="24"/>
       <c r="H17" s="25" t="s">
@@ -2096,88 +2284,116 @@
       <c r="O17" s="25"/>
       <c r="P17" s="26"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" ht="24" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="C20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="B20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="24" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E22" s="10" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="9" t="s">
+      <c r="C24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E24" s="9" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
